--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1694405.688054559</v>
+        <v>1656229.480754223</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1854862.008498283</v>
+        <v>1854862.008498288</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7903192.579699637</v>
+        <v>7903192.579699649</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8166721.833054477</v>
+        <v>8166721.833054475</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>294.1826314175108</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.94257868455216</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1457,19 +1457,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>133.9593922928951</v>
       </c>
       <c r="U12" t="n">
         <v>225.8879277888686</v>
@@ -1511,10 +1511,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>95.75688921197455</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>156.5638745616931</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>108.1568209712021</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>11.54511260868126</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>38.03941692999783</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1742,19 +1742,19 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>40.76303985667745</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>145.5162732271179</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.8990189732827</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>61.63425920309675</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>162.3301863578816</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888696</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>115.4685441446654</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>239.3793659431438</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>330.5754487741079</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>203.7542583160505</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>132.997194893274</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>121.5536603314378</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>101.0111031237839</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2453,7 +2453,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>71.13219726967624</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>275.4666232302528</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>79.22210190382118</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>123.8845600436659</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>139.5220440822058</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.0202253155453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2812,7 +2812,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>61.93455017578141</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>13.62152856464962</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2994,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.37164904375792</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>339.7248796633271</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>243.7893017012161</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>122.3623168480191</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>123.5756458870621</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>11.39108932486009</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>311.4936872159395</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3404,7 +3404,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>94.63926978364033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,10 +3520,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>275.2205144772651</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>176.5365836185377</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>13.96214174992415</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>286.2381480623296</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>281.617597950237</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>277.3823652536665</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3830,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>106.4825595233517</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>95.76120413627892</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3903,25 +3903,25 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>18.37682225755661</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>250.7565549116954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>132.2496217415111</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4058,13 +4058,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>37.88447357157067</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4118,10 +4118,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>178.293177726687</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4140,25 +4140,25 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>4.726971031682301</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>95.29787616176779</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1156.68853487454</v>
+        <v>1169.775952769555</v>
       </c>
       <c r="C11" t="n">
-        <v>787.7260179341281</v>
+        <v>1169.775952769555</v>
       </c>
       <c r="D11" t="n">
-        <v>429.4603193273776</v>
+        <v>1169.775952769555</v>
       </c>
       <c r="E11" t="n">
-        <v>43.67206672913338</v>
+        <v>872.621779620554</v>
       </c>
       <c r="F11" t="n">
-        <v>43.67206672913338</v>
+        <v>461.6358748309464</v>
       </c>
       <c r="G11" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="H11" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="I11" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="J11" t="n">
-        <v>159.4399229620831</v>
+        <v>159.439922962083</v>
       </c>
       <c r="K11" t="n">
-        <v>159.4399229620831</v>
+        <v>453.6907339820815</v>
       </c>
       <c r="L11" t="n">
-        <v>367.7366725608546</v>
+        <v>871.0115120311764</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6929927188901</v>
+        <v>906.9494340313078</v>
       </c>
       <c r="N11" t="n">
-        <v>1322.799691415622</v>
+        <v>1381.056132728039</v>
       </c>
       <c r="O11" t="n">
-        <v>1725.297565081136</v>
+        <v>1783.554006393554</v>
       </c>
       <c r="P11" t="n">
-        <v>2031.145805229699</v>
+        <v>2089.402246542117</v>
       </c>
       <c r="Q11" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="R11" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="S11" t="n">
-        <v>2153.358307482374</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="T11" t="n">
-        <v>2153.358307482374</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="U11" t="n">
-        <v>1899.596522120466</v>
+        <v>1929.841551094756</v>
       </c>
       <c r="V11" t="n">
-        <v>1899.596522120466</v>
+        <v>1929.841551094756</v>
       </c>
       <c r="W11" t="n">
-        <v>1546.827866850351</v>
+        <v>1929.841551094756</v>
       </c>
       <c r="X11" t="n">
-        <v>1546.827866850351</v>
+        <v>1556.375792833677</v>
       </c>
       <c r="Y11" t="n">
-        <v>1156.68853487454</v>
+        <v>1556.375792833677</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>840.3169470721183</v>
+        <v>756.9469586734186</v>
       </c>
       <c r="C12" t="n">
-        <v>665.8639177909913</v>
+        <v>582.4939293922916</v>
       </c>
       <c r="D12" t="n">
-        <v>516.92950812974</v>
+        <v>433.5595197310404</v>
       </c>
       <c r="E12" t="n">
-        <v>357.6920531242845</v>
+        <v>433.5595197310404</v>
       </c>
       <c r="F12" t="n">
-        <v>211.1574951511695</v>
+        <v>287.0249617579253</v>
       </c>
       <c r="G12" t="n">
-        <v>211.1574951511695</v>
+        <v>149.1148487041914</v>
       </c>
       <c r="H12" t="n">
-        <v>105.7147131761114</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="I12" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="J12" t="n">
-        <v>118.9292291292632</v>
+        <v>118.9292291292631</v>
       </c>
       <c r="K12" t="n">
-        <v>118.9292291292632</v>
+        <v>374.1765495703617</v>
       </c>
       <c r="L12" t="n">
-        <v>342.63386049044</v>
+        <v>778.7924676660335</v>
       </c>
       <c r="M12" t="n">
-        <v>866.7807740484709</v>
+        <v>866.7807740484674</v>
       </c>
       <c r="N12" t="n">
-        <v>1407.222599821496</v>
+        <v>1407.222599821492</v>
       </c>
       <c r="O12" t="n">
-        <v>1847.35852284184</v>
+        <v>1847.358522841836</v>
       </c>
       <c r="P12" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="Q12" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="R12" t="n">
-        <v>2133.389965868494</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="S12" t="n">
-        <v>1975.21699351241</v>
+        <v>2025.430364100581</v>
       </c>
       <c r="T12" t="n">
-        <v>1776.338445635189</v>
+        <v>1890.11784663301</v>
       </c>
       <c r="U12" t="n">
-        <v>1548.168821606029</v>
+        <v>1661.94822260385</v>
       </c>
       <c r="V12" t="n">
-        <v>1313.016713374286</v>
+        <v>1426.796114372107</v>
       </c>
       <c r="W12" t="n">
-        <v>1216.29258285714</v>
+        <v>1172.558757643905</v>
       </c>
       <c r="X12" t="n">
-        <v>1216.29258285714</v>
+        <v>964.7072574383726</v>
       </c>
       <c r="Y12" t="n">
-        <v>1008.532284092186</v>
+        <v>756.9469586734186</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>688.4411499688251</v>
+        <v>212.6718669908009</v>
       </c>
       <c r="C13" t="n">
-        <v>530.2958221287311</v>
+        <v>212.6718669908009</v>
       </c>
       <c r="D13" t="n">
-        <v>530.2958221287311</v>
+        <v>212.6718669908009</v>
       </c>
       <c r="E13" t="n">
-        <v>530.2958221287311</v>
+        <v>212.6718669908009</v>
       </c>
       <c r="F13" t="n">
-        <v>383.4058746308207</v>
+        <v>212.6718669908009</v>
       </c>
       <c r="G13" t="n">
-        <v>383.4058746308207</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="H13" t="n">
-        <v>225.6575020633508</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="I13" t="n">
-        <v>89.32859116199904</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="J13" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="K13" t="n">
-        <v>99.97425979540151</v>
+        <v>99.97425979540144</v>
       </c>
       <c r="L13" t="n">
         <v>227.5481173565599</v>
@@ -5220,31 +5220,31 @@
         <v>717.8580691152032</v>
       </c>
       <c r="Q13" t="n">
-        <v>688.4411499688251</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="R13" t="n">
-        <v>688.4411499688251</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="S13" t="n">
-        <v>688.4411499688251</v>
+        <v>503.5696459333659</v>
       </c>
       <c r="T13" t="n">
-        <v>688.4411499688251</v>
+        <v>394.3203318210406</v>
       </c>
       <c r="U13" t="n">
-        <v>688.4411499688251</v>
+        <v>394.3203318210406</v>
       </c>
       <c r="V13" t="n">
-        <v>688.4411499688251</v>
+        <v>394.3203318210406</v>
       </c>
       <c r="W13" t="n">
-        <v>688.4411499688251</v>
+        <v>394.3203318210406</v>
       </c>
       <c r="X13" t="n">
-        <v>688.4411499688251</v>
+        <v>394.3203318210406</v>
       </c>
       <c r="Y13" t="n">
-        <v>688.4411499688251</v>
+        <v>394.3203318210406</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1423.537738131468</v>
+        <v>440.3614188005281</v>
       </c>
       <c r="C14" t="n">
-        <v>1423.537738131468</v>
+        <v>440.3614188005281</v>
       </c>
       <c r="D14" t="n">
-        <v>1411.876008223709</v>
+        <v>82.09572019377759</v>
       </c>
       <c r="E14" t="n">
-        <v>1026.087755625465</v>
+        <v>82.09572019377759</v>
       </c>
       <c r="F14" t="n">
-        <v>615.1018508358569</v>
+        <v>82.09572019377759</v>
       </c>
       <c r="G14" t="n">
-        <v>197.1380427340438</v>
+        <v>82.09572019377759</v>
       </c>
       <c r="H14" t="n">
-        <v>197.1380427340438</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="I14" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="J14" t="n">
-        <v>159.4399229620831</v>
+        <v>159.439922962083</v>
       </c>
       <c r="K14" t="n">
-        <v>383.3893496796241</v>
+        <v>453.6907339820815</v>
       </c>
       <c r="L14" t="n">
-        <v>800.7101277287189</v>
+        <v>871.0115120311764</v>
       </c>
       <c r="M14" t="n">
-        <v>1281.666447886754</v>
+        <v>1351.967832189212</v>
       </c>
       <c r="N14" t="n">
-        <v>1322.799691415622</v>
+        <v>1699.791870865735</v>
       </c>
       <c r="O14" t="n">
-        <v>1725.297565081136</v>
+        <v>1725.297565081132</v>
       </c>
       <c r="P14" t="n">
-        <v>2031.145805229699</v>
+        <v>2031.145805229695</v>
       </c>
       <c r="Q14" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456666</v>
       </c>
       <c r="R14" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456666</v>
       </c>
       <c r="S14" t="n">
-        <v>2183.603336456669</v>
+        <v>2007.425848770836</v>
       </c>
       <c r="T14" t="n">
-        <v>2183.603336456669</v>
+        <v>1788.791181742899</v>
       </c>
       <c r="U14" t="n">
-        <v>2183.603336456669</v>
+        <v>1535.02939638099</v>
       </c>
       <c r="V14" t="n">
-        <v>2183.603336456669</v>
+        <v>1203.96650903742</v>
       </c>
       <c r="W14" t="n">
-        <v>2183.603336456669</v>
+        <v>1203.96650903742</v>
       </c>
       <c r="X14" t="n">
-        <v>1810.137578195589</v>
+        <v>830.5007507763398</v>
       </c>
       <c r="Y14" t="n">
-        <v>1810.137578195589</v>
+        <v>440.3614188005281</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.1844136788742</v>
+        <v>585.9397554358088</v>
       </c>
       <c r="C15" t="n">
-        <v>741.7313843977472</v>
+        <v>411.4867261546818</v>
       </c>
       <c r="D15" t="n">
-        <v>592.7969747364959</v>
+        <v>411.4867261546818</v>
       </c>
       <c r="E15" t="n">
-        <v>433.5595197310405</v>
+        <v>252.2492711492263</v>
       </c>
       <c r="F15" t="n">
-        <v>287.0249617579254</v>
+        <v>105.7147131761113</v>
       </c>
       <c r="G15" t="n">
-        <v>149.1148487041915</v>
+        <v>105.7147131761113</v>
       </c>
       <c r="H15" t="n">
-        <v>43.67206672913338</v>
+        <v>105.7147131761113</v>
       </c>
       <c r="I15" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="J15" t="n">
-        <v>118.9292291292632</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="K15" t="n">
-        <v>374.1765495703617</v>
+        <v>227.2091988027601</v>
       </c>
       <c r="L15" t="n">
-        <v>778.7924676660336</v>
+        <v>631.8251168984319</v>
       </c>
       <c r="M15" t="n">
-        <v>1256.704470132433</v>
+        <v>1155.972030456463</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.146295905459</v>
+        <v>1235.149615955896</v>
       </c>
       <c r="O15" t="n">
-        <v>1847.35852284184</v>
+        <v>1675.28553897624</v>
       </c>
       <c r="P15" t="n">
-        <v>2183.603336456669</v>
+        <v>2011.530352591069</v>
       </c>
       <c r="Q15" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456666</v>
       </c>
       <c r="R15" t="n">
-        <v>2133.389965868494</v>
+        <v>2183.603336456666</v>
       </c>
       <c r="S15" t="n">
-        <v>1975.21699351241</v>
+        <v>2025.430364100582</v>
       </c>
       <c r="T15" t="n">
-        <v>1776.338445635189</v>
+        <v>1826.551816223361</v>
       </c>
       <c r="U15" t="n">
-        <v>1776.338445635189</v>
+        <v>1598.3821921942</v>
       </c>
       <c r="V15" t="n">
-        <v>1541.186337403446</v>
+        <v>1363.230083962458</v>
       </c>
       <c r="W15" t="n">
-        <v>1500.011549669429</v>
+        <v>1108.992727234256</v>
       </c>
       <c r="X15" t="n">
-        <v>1292.160049463896</v>
+        <v>901.1412270287233</v>
       </c>
       <c r="Y15" t="n">
-        <v>1084.399750698942</v>
+        <v>754.1550924558769</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>327.9140712128783</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="C16" t="n">
-        <v>327.9140712128783</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="D16" t="n">
-        <v>327.9140712128783</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="E16" t="n">
-        <v>180.0009776304852</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="F16" t="n">
-        <v>180.0009776304852</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="G16" t="n">
-        <v>180.0009776304852</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="H16" t="n">
-        <v>180.0009776304852</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="I16" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="J16" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="K16" t="n">
-        <v>99.97425979540151</v>
+        <v>99.97425979540145</v>
       </c>
       <c r="L16" t="n">
         <v>227.5481173565599</v>
@@ -5463,25 +5463,25 @@
         <v>717.8580691152032</v>
       </c>
       <c r="S16" t="n">
-        <v>503.5696459333659</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="T16" t="n">
-        <v>503.5696459333659</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="U16" t="n">
-        <v>503.5696459333659</v>
+        <v>428.6844587697711</v>
       </c>
       <c r="V16" t="n">
-        <v>503.5696459333659</v>
+        <v>173.9999705638843</v>
       </c>
       <c r="W16" t="n">
-        <v>503.5696459333659</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="X16" t="n">
-        <v>503.5696459333659</v>
+        <v>43.67206672913331</v>
       </c>
       <c r="Y16" t="n">
-        <v>503.5696459333659</v>
+        <v>43.67206672913331</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1272.344242153658</v>
+        <v>1519.351822121131</v>
       </c>
       <c r="C17" t="n">
-        <v>1272.344242153658</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="D17" t="n">
-        <v>1272.344242153658</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G17" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2533.179205808241</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2533.179205808241</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2279.417420446333</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2279.417420446333</v>
       </c>
       <c r="W17" t="n">
-        <v>1662.48357412947</v>
+        <v>2279.417420446333</v>
       </c>
       <c r="X17" t="n">
-        <v>1662.48357412947</v>
+        <v>1905.951662185253</v>
       </c>
       <c r="Y17" t="n">
-        <v>1272.344242153658</v>
+        <v>1905.951662185253</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170829</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359559</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692491</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5606,25 +5606,25 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>318.4909684781771</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="C19" t="n">
-        <v>318.4909684781771</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D19" t="n">
-        <v>318.4909684781771</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E19" t="n">
-        <v>170.577874895784</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F19" t="n">
-        <v>170.577874895784</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064342</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="X19" t="n">
-        <v>500.1394333084169</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="Y19" t="n">
-        <v>500.1394333084169</v>
+        <v>338.1849863041093</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>833.8914035503838</v>
+        <v>1216.807289433106</v>
       </c>
       <c r="C20" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D20" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T20" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2315.159221194968</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>1984.096333851397</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W20" t="n">
-        <v>1984.096333851397</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X20" t="n">
-        <v>1610.630575590317</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y20" t="n">
-        <v>1220.491243614505</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="21">
@@ -5813,43 +5813,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>593.7883833041373</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W22" t="n">
-        <v>593.7883833041373</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X22" t="n">
-        <v>593.7883833041373</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>688.4561315142857</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C23" t="n">
-        <v>688.4561315142857</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D23" t="n">
-        <v>330.1904329075352</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>330.1904329075352</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>330.1904329075352</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>330.1904329075352</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2595.117673721471</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2376.483006693534</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2376.483006693534</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W23" t="n">
-        <v>1838.661061815299</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X23" t="n">
-        <v>1465.195303554219</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y23" t="n">
-        <v>1075.055971578407</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="24">
@@ -6044,43 +6044,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
         <v>2188.831293537797</v>
@@ -6104,13 +6104,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>2547.032451605887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>2475.181747293082</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>2328.291799795172</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018222</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018222</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y25" t="n">
-        <v>2697.149091018222</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1791.109440255352</v>
+        <v>962.91501986716</v>
       </c>
       <c r="C26" t="n">
-        <v>1422.14692331494</v>
+        <v>962.91501986716</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.14692331494</v>
+        <v>962.91501986716</v>
       </c>
       <c r="E26" t="n">
-        <v>1036.358670716696</v>
+        <v>962.91501986716</v>
       </c>
       <c r="F26" t="n">
-        <v>625.3727659270879</v>
+        <v>551.9291150775525</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>133.9653069757394</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>133.9653069757394</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V26" t="n">
-        <v>1916.245359491378</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W26" t="n">
-        <v>1791.109440255352</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X26" t="n">
-        <v>1791.109440255352</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y26" t="n">
-        <v>1791.109440255352</v>
+        <v>1349.514859931282</v>
       </c>
     </row>
     <row r="27">
@@ -6287,10 +6287,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961342</v>
@@ -6299,31 +6299,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.5813018857447</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C28" t="n">
-        <v>358.5813018857447</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D28" t="n">
-        <v>358.5813018857447</v>
+        <v>331.20325038051</v>
       </c>
       <c r="E28" t="n">
-        <v>358.5813018857447</v>
+        <v>331.20325038051</v>
       </c>
       <c r="F28" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G28" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6426,10 +6426,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y28" t="n">
-        <v>540.2297667159844</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2065.583954036491</v>
+        <v>1658.435818966735</v>
       </c>
       <c r="C29" t="n">
-        <v>1696.62143709608</v>
+        <v>1658.435818966735</v>
       </c>
       <c r="D29" t="n">
-        <v>1338.355738489329</v>
+        <v>1658.435818966735</v>
       </c>
       <c r="E29" t="n">
-        <v>952.5674858910851</v>
+        <v>1272.647566368491</v>
       </c>
       <c r="F29" t="n">
-        <v>952.5674858910851</v>
+        <v>861.6616615788832</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>443.6978534770701</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>116.503133513073</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W29" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X29" t="n">
-        <v>2465.942913862886</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y29" t="n">
-        <v>2452.183794100613</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="30">
@@ -6524,10 +6524,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961342</v>
@@ -6536,31 +6536,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6642,31 +6642,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>658.9427225916138</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>658.9427225916138</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>658.9427225916138</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>369.7691122461817</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>369.7691122461817</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W31" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>780.8554976894902</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C32" t="n">
-        <v>780.8554976894902</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D32" t="n">
-        <v>780.8554976894902</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E32" t="n">
-        <v>780.8554976894902</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6703,16 +6703,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6730,22 +6730,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1540.921096014692</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X32" t="n">
-        <v>1167.455337753612</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y32" t="n">
-        <v>1167.455337753612</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
         <v>665.1105362747051</v>
@@ -6779,37 +6779,37 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>224.4233909876363</v>
+        <v>177.5412816668484</v>
       </c>
       <c r="C34" t="n">
-        <v>224.4233909876363</v>
+        <v>177.5412816668484</v>
       </c>
       <c r="D34" t="n">
-        <v>224.4233909876363</v>
+        <v>177.5412816668484</v>
       </c>
       <c r="E34" t="n">
-        <v>224.4233909876363</v>
+        <v>177.5412816668484</v>
       </c>
       <c r="F34" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
         <v>53.94298182036445</v>
@@ -6882,28 +6882,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U34" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V34" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W34" t="n">
-        <v>224.4233909876363</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X34" t="n">
-        <v>224.4233909876363</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.4233909876363</v>
+        <v>359.1897464970881</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1995.909162857191</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.680947310029</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X35" t="n">
-        <v>2697.149091018222</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y35" t="n">
-        <v>2382.509002921313</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7052,13 +7052,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610022</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W37" t="n">
-        <v>149.5382038240415</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X37" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1683.321707331112</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C38" t="n">
-        <v>1314.359190390701</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D38" t="n">
-        <v>1314.359190390701</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E38" t="n">
-        <v>1314.359190390701</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>903.3732856010931</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>485.40947749928</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7201,25 +7201,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.387305656314</v>
+        <v>2342.651821899526</v>
       </c>
       <c r="V38" t="n">
-        <v>2443.387305656314</v>
+        <v>2011.588934555955</v>
       </c>
       <c r="W38" t="n">
-        <v>2443.387305656314</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="X38" t="n">
-        <v>2069.921547395234</v>
+        <v>1658.820279285841</v>
       </c>
       <c r="Y38" t="n">
-        <v>2069.921547395234</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="39">
@@ -7265,10 +7265,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>218.1627947174721</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C40" t="n">
-        <v>218.1627947174721</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D40" t="n">
-        <v>68.04615530513632</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E40" t="n">
-        <v>68.04615530513632</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F40" t="n">
-        <v>68.04615530513632</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G40" t="n">
-        <v>68.04615530513632</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H40" t="n">
-        <v>68.04615530513632</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>68.04615530513632</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
         <v>53.94298182036445</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W40" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X40" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.1627947174721</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1199.816499584551</v>
+        <v>808.7949828497954</v>
       </c>
       <c r="C41" t="n">
-        <v>1199.816499584551</v>
+        <v>808.7949828497954</v>
       </c>
       <c r="D41" t="n">
-        <v>1199.816499584551</v>
+        <v>808.7949828497954</v>
       </c>
       <c r="E41" t="n">
-        <v>1199.816499584551</v>
+        <v>808.7949828497954</v>
       </c>
       <c r="F41" t="n">
-        <v>788.8305947949436</v>
+        <v>808.7949828497954</v>
       </c>
       <c r="G41" t="n">
-        <v>370.8667866931306</v>
+        <v>524.3327626980408</v>
       </c>
       <c r="H41" t="n">
-        <v>43.67206672913338</v>
+        <v>197.1380427340437</v>
       </c>
       <c r="I41" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="J41" t="n">
-        <v>159.4399229620831</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="K41" t="n">
-        <v>453.6907339820816</v>
+        <v>337.9228777491318</v>
       </c>
       <c r="L41" t="n">
-        <v>871.0115120311764</v>
+        <v>755.2436557982267</v>
       </c>
       <c r="M41" t="n">
-        <v>1001.15052394586</v>
+        <v>1236.199975956262</v>
       </c>
       <c r="N41" t="n">
-        <v>1475.257222642591</v>
+        <v>1710.306674652994</v>
       </c>
       <c r="O41" t="n">
-        <v>1877.755096308106</v>
+        <v>2112.804548318508</v>
       </c>
       <c r="P41" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="Q41" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="R41" t="n">
-        <v>2128.574646987162</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="S41" t="n">
-        <v>1952.397159301333</v>
+        <v>2007.425848770835</v>
       </c>
       <c r="T41" t="n">
-        <v>1733.762492273395</v>
+        <v>1788.791181742898</v>
       </c>
       <c r="U41" t="n">
-        <v>1480.000706911487</v>
+        <v>1535.029396380989</v>
       </c>
       <c r="V41" t="n">
-        <v>1480.000706911487</v>
+        <v>1535.029396380989</v>
       </c>
       <c r="W41" t="n">
-        <v>1199.816499584551</v>
+        <v>1182.260741110875</v>
       </c>
       <c r="X41" t="n">
-        <v>1199.816499584551</v>
+        <v>808.7949828497954</v>
       </c>
       <c r="Y41" t="n">
-        <v>1199.816499584551</v>
+        <v>808.7949828497954</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>693.7823890990032</v>
+        <v>636.2886024226889</v>
       </c>
       <c r="C42" t="n">
-        <v>519.3293598178763</v>
+        <v>636.2886024226889</v>
       </c>
       <c r="D42" t="n">
-        <v>370.394950156625</v>
+        <v>487.3541927614377</v>
       </c>
       <c r="E42" t="n">
-        <v>211.1574951511695</v>
+        <v>328.1167377559822</v>
       </c>
       <c r="F42" t="n">
-        <v>211.1574951511695</v>
+        <v>181.5821797828672</v>
       </c>
       <c r="G42" t="n">
-        <v>211.1574951511695</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="H42" t="n">
-        <v>105.7147131761114</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="I42" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="J42" t="n">
-        <v>118.9292291292632</v>
+        <v>72.69431803762814</v>
       </c>
       <c r="K42" t="n">
-        <v>374.1765495703617</v>
+        <v>327.9416384787266</v>
       </c>
       <c r="L42" t="n">
-        <v>778.7924676660336</v>
+        <v>732.5575565743985</v>
       </c>
       <c r="M42" t="n">
-        <v>1155.972030456466</v>
+        <v>1256.704470132429</v>
       </c>
       <c r="N42" t="n">
-        <v>1235.1496159559</v>
+        <v>1797.146295905454</v>
       </c>
       <c r="O42" t="n">
-        <v>1675.285538976244</v>
+        <v>1847.358522841836</v>
       </c>
       <c r="P42" t="n">
-        <v>2011.530352591072</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="Q42" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="R42" t="n">
-        <v>2133.389965868494</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="S42" t="n">
-        <v>2025.831824935816</v>
+        <v>2025.430364100581</v>
       </c>
       <c r="T42" t="n">
-        <v>1826.953277058594</v>
+        <v>1826.55181622336</v>
       </c>
       <c r="U42" t="n">
-        <v>1598.783653029434</v>
+        <v>1598.382192194199</v>
       </c>
       <c r="V42" t="n">
-        <v>1363.631544797692</v>
+        <v>1363.230083962457</v>
       </c>
       <c r="W42" t="n">
-        <v>1109.39418806949</v>
+        <v>1108.992727234255</v>
       </c>
       <c r="X42" t="n">
-        <v>901.5426878639571</v>
+        <v>1012.264238207711</v>
       </c>
       <c r="Y42" t="n">
-        <v>693.7823890990032</v>
+        <v>804.503939442757</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.67206672913338</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="C43" t="n">
-        <v>43.67206672913338</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="D43" t="n">
-        <v>43.67206672913338</v>
+        <v>699.2956223903985</v>
       </c>
       <c r="E43" t="n">
-        <v>43.67206672913338</v>
+        <v>699.2956223903985</v>
       </c>
       <c r="F43" t="n">
-        <v>43.67206672913338</v>
+        <v>552.4056748924882</v>
       </c>
       <c r="G43" t="n">
-        <v>43.67206672913338</v>
+        <v>383.4058746308206</v>
       </c>
       <c r="H43" t="n">
-        <v>43.67206672913338</v>
+        <v>225.6575020633507</v>
       </c>
       <c r="I43" t="n">
-        <v>43.67206672913338</v>
+        <v>89.32859116199896</v>
       </c>
       <c r="J43" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="K43" t="n">
-        <v>99.97425979540151</v>
+        <v>99.97425979540144</v>
       </c>
       <c r="L43" t="n">
         <v>227.5481173565599</v>
@@ -7599,22 +7599,22 @@
         <v>717.8580691152032</v>
       </c>
       <c r="T43" t="n">
-        <v>490.5498817838049</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="U43" t="n">
-        <v>298.3565549350203</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="V43" t="n">
-        <v>43.67206672913338</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="W43" t="n">
-        <v>43.67206672913338</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="X43" t="n">
-        <v>43.67206672913338</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.67206672913338</v>
+        <v>717.8580691152032</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>624.1562360988835</v>
+        <v>370.8667866931305</v>
       </c>
       <c r="C44" t="n">
-        <v>624.1562360988835</v>
+        <v>370.8667866931305</v>
       </c>
       <c r="D44" t="n">
-        <v>624.1562360988835</v>
+        <v>370.8667866931305</v>
       </c>
       <c r="E44" t="n">
-        <v>624.1562360988835</v>
+        <v>370.8667866931305</v>
       </c>
       <c r="F44" t="n">
-        <v>624.1562360988835</v>
+        <v>370.8667866931305</v>
       </c>
       <c r="G44" t="n">
-        <v>370.8667866931306</v>
+        <v>370.8667866931305</v>
       </c>
       <c r="H44" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="I44" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="J44" t="n">
-        <v>159.4399229620831</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="K44" t="n">
-        <v>453.6907339820816</v>
+        <v>102.8734257387251</v>
       </c>
       <c r="L44" t="n">
-        <v>871.0115120311764</v>
+        <v>520.1942037878199</v>
       </c>
       <c r="M44" t="n">
-        <v>1001.15052394586</v>
+        <v>1001.150523945855</v>
       </c>
       <c r="N44" t="n">
-        <v>1475.257222642591</v>
+        <v>1475.257222642587</v>
       </c>
       <c r="O44" t="n">
-        <v>1877.755096308106</v>
+        <v>1877.755096308102</v>
       </c>
       <c r="P44" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="Q44" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="R44" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="S44" t="n">
-        <v>2007.425848770839</v>
+        <v>2007.425848770835</v>
       </c>
       <c r="T44" t="n">
-        <v>2007.425848770839</v>
+        <v>2007.425848770835</v>
       </c>
       <c r="U44" t="n">
-        <v>1753.664063408931</v>
+        <v>1873.840372264258</v>
       </c>
       <c r="V44" t="n">
-        <v>1753.664063408931</v>
+        <v>1873.840372264258</v>
       </c>
       <c r="W44" t="n">
-        <v>1400.895408138817</v>
+        <v>1521.071716994144</v>
       </c>
       <c r="X44" t="n">
-        <v>1400.895408138817</v>
+        <v>1147.605958733064</v>
       </c>
       <c r="Y44" t="n">
-        <v>1010.756076163005</v>
+        <v>757.4666267572522</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>756.9469586734187</v>
+        <v>682.8037208610581</v>
       </c>
       <c r="C45" t="n">
-        <v>582.4939293922918</v>
+        <v>682.8037208610581</v>
       </c>
       <c r="D45" t="n">
-        <v>433.5595197310405</v>
+        <v>533.8693111998068</v>
       </c>
       <c r="E45" t="n">
-        <v>433.5595197310405</v>
+        <v>495.6021661780183</v>
       </c>
       <c r="F45" t="n">
-        <v>287.0249617579254</v>
+        <v>349.0676082049033</v>
       </c>
       <c r="G45" t="n">
-        <v>149.1148487041915</v>
+        <v>211.1574951511694</v>
       </c>
       <c r="H45" t="n">
-        <v>43.67206672913338</v>
+        <v>105.7147131761112</v>
       </c>
       <c r="I45" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="J45" t="n">
-        <v>43.67206672913338</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="K45" t="n">
-        <v>298.9193871702319</v>
+        <v>253.2960833483023</v>
       </c>
       <c r="L45" t="n">
-        <v>631.8251168984356</v>
+        <v>657.9120014439742</v>
       </c>
       <c r="M45" t="n">
-        <v>1155.972030456466</v>
+        <v>1182.058915002005</v>
       </c>
       <c r="N45" t="n">
-        <v>1235.1496159559</v>
+        <v>1722.500740775029</v>
       </c>
       <c r="O45" t="n">
-        <v>1675.285538976244</v>
+        <v>2162.636663795373</v>
       </c>
       <c r="P45" t="n">
-        <v>2011.530352591072</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="Q45" t="n">
-        <v>2183.603336456669</v>
+        <v>2183.603336456665</v>
       </c>
       <c r="R45" t="n">
-        <v>2133.389965868494</v>
+        <v>2133.38996586849</v>
       </c>
       <c r="S45" t="n">
-        <v>1975.21699351241</v>
+        <v>1975.216993512406</v>
       </c>
       <c r="T45" t="n">
-        <v>1776.338445635189</v>
+        <v>1776.338445635185</v>
       </c>
       <c r="U45" t="n">
-        <v>1548.168821606029</v>
+        <v>1548.168821606024</v>
       </c>
       <c r="V45" t="n">
-        <v>1313.016713374286</v>
+        <v>1313.016713374282</v>
       </c>
       <c r="W45" t="n">
-        <v>1313.016713374286</v>
+        <v>1058.77935664608</v>
       </c>
       <c r="X45" t="n">
-        <v>1132.922594458441</v>
+        <v>1058.77935664608</v>
       </c>
       <c r="Y45" t="n">
-        <v>925.1622956934868</v>
+        <v>851.0190578811262</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2183.603336456669</v>
+        <v>180.000977630485</v>
       </c>
       <c r="C46" t="n">
-        <v>2183.603336456669</v>
+        <v>180.000977630485</v>
       </c>
       <c r="D46" t="n">
-        <v>2033.486697044334</v>
+        <v>180.000977630485</v>
       </c>
       <c r="E46" t="n">
-        <v>2028.711978830513</v>
+        <v>180.000977630485</v>
       </c>
       <c r="F46" t="n">
-        <v>1881.822031332603</v>
+        <v>180.000977630485</v>
       </c>
       <c r="G46" t="n">
-        <v>1712.822231070935</v>
+        <v>180.000977630485</v>
       </c>
       <c r="H46" t="n">
-        <v>1555.073858503465</v>
+        <v>180.000977630485</v>
       </c>
       <c r="I46" t="n">
-        <v>1555.073858503465</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.4173340706</v>
+        <v>43.67206672913329</v>
       </c>
       <c r="K46" t="n">
-        <v>1565.719527136868</v>
+        <v>99.97425979540144</v>
       </c>
       <c r="L46" t="n">
-        <v>1693.293384698026</v>
+        <v>227.5481173565599</v>
       </c>
       <c r="M46" t="n">
-        <v>1838.191253416056</v>
+        <v>372.4459860745898</v>
       </c>
       <c r="N46" t="n">
-        <v>1985.078391100485</v>
+        <v>519.3331237590189</v>
       </c>
       <c r="O46" t="n">
-        <v>2104.736141609725</v>
+        <v>638.9908742682591</v>
       </c>
       <c r="P46" t="n">
-        <v>2183.603336456669</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="Q46" t="n">
-        <v>2183.603336456669</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="R46" t="n">
-        <v>2183.603336456669</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="S46" t="n">
-        <v>2183.603336456669</v>
+        <v>503.5696459333659</v>
       </c>
       <c r="T46" t="n">
-        <v>2183.603336456669</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="U46" t="n">
-        <v>2183.603336456669</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="V46" t="n">
-        <v>2183.603336456669</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="W46" t="n">
-        <v>2183.603336456669</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="X46" t="n">
-        <v>2183.603336456669</v>
+        <v>276.2614586019677</v>
       </c>
       <c r="Y46" t="n">
-        <v>2183.603336456669</v>
+        <v>180.000977630485</v>
       </c>
     </row>
   </sheetData>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>26.92237113682285</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>206.5258322773965</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8710,7 +8710,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>153.4701004453368</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>6.639660809448827</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>188.1016718342723</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>25.14081407767971</v>
       </c>
       <c r="N12" t="n">
-        <v>465.9234750238306</v>
+        <v>465.9234750238294</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.26619292211501</v>
+        <v>36.266192922115</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>253.1339132757531</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8938,10 +8938,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>309.7886819673295</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>192.0307033080617</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>419.0031333544129</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>465.9234750238306</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.26619292211501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928328</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,10 +9728,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>52.15938665394273</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>95.15261607530533</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11077,10 +11077,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>84.37501927208207</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.3174843700358</v>
+        <v>58.31748437003577</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>79.38910494481794</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>317.2531942877797</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>465.9234750238294</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>36.266192922115</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>52.15938665394273</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>86.72172367176401</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>95.15261607530533</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.3174843700358</v>
+        <v>58.31748437003577</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>218.3810917379024</v>
       </c>
       <c r="L45" t="n">
-        <v>298.4058115989459</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>465.9234750238294</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>36.266192922115</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>87.747738654751</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>144.4731341244194</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>62.93037010555381</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>155.938093948945</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>10.68294653693471</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>116.8782844868822</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>343.1379290120017</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>285.8833558343593</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>210.9319433042422</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>60.16642255018647</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.932961208654575</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>320.296110869165</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>12.08552645108998</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>51.84125811438554</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>47.14363239344721</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>34.69744299689967</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>47.46990919223884</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,10 +24147,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24183,19 +24183,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>119.140448430554</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>202.3691124329193</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>73.40460968518761</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>75.30176537689293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>11.05637510633818</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>72.70921434104007</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>225.3564086737471</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,19 +24612,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>5.899003940725407</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.56442803654949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>89.99676606907984</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>372.616410091404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>107.2935429363999</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>25.54801210768045</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>163.0867440404954</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>23.05873117491215</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>11.38997590527613</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>371.3427523386205</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>74.74425144011411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,19 +25368,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>123.9453835684545</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>48.70225828709204</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>74.68758388975155</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,13 +25566,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>31.23781743861286</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,10 +25602,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.04372617964810388</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>132.166572070558</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>71.85860346374653</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>50.10868310917138</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>110.0117810671986</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25791,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>130.2386507606557</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25839,13 +25839,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>96.0104806616809</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>163.0276151090996</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>118.9745457667782</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25946,13 +25946,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>119.7606068838303</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26006,10 +26006,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>27.47980747679048</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26028,25 +26028,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>141.7069916148869</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>123.286777190327</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>599578.1052562076</v>
+        <v>599578.1052562068</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>599578.1052562076</v>
+        <v>599578.1052562069</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679000.4134896505</v>
+        <v>679000.4134896506</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679000.4134896506</v>
+        <v>679000.4134896505</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679000.4134896507</v>
+        <v>679000.4134896506</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679000.4134896507</v>
+        <v>679000.4134896506</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>599578.1052562075</v>
+        <v>599578.1052562068</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>599578.1052562075</v>
+        <v>599578.1052562068</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="C2" t="n">
         <v>634939.1625057049</v>
       </c>
       <c r="D2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057046</v>
       </c>
       <c r="E2" t="n">
-        <v>401077.7558132244</v>
+        <v>401077.7558132243</v>
       </c>
       <c r="F2" t="n">
         <v>401077.7558132242</v>
       </c>
       <c r="G2" t="n">
-        <v>448186.5455244241</v>
+        <v>448186.5455244239</v>
       </c>
       <c r="H2" t="n">
         <v>448186.5455244242</v>
       </c>
       <c r="I2" t="n">
-        <v>448186.5455244241</v>
+        <v>448186.545524424</v>
       </c>
       <c r="J2" t="n">
-        <v>448186.5455244241</v>
+        <v>448186.5455244243</v>
       </c>
       <c r="K2" t="n">
         <v>448186.5455244241</v>
       </c>
       <c r="L2" t="n">
-        <v>448186.5455244241</v>
+        <v>448186.545524424</v>
       </c>
       <c r="M2" t="n">
-        <v>448186.5455244241</v>
+        <v>448186.5455244242</v>
       </c>
       <c r="N2" t="n">
         <v>448186.5455244241</v>
       </c>
       <c r="O2" t="n">
-        <v>401077.7558132245</v>
+        <v>401077.7558132242</v>
       </c>
       <c r="P2" t="n">
-        <v>401077.7558132244</v>
+        <v>401077.7558132241</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466474.3723111398</v>
+        <v>466474.3723111396</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>35188.79703475083</v>
+        <v>35188.79703475113</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>136040.6714645869</v>
+        <v>136040.6714645866</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>95416.49136644615</v>
+        <v>95416.49136644595</v>
       </c>
       <c r="F4" t="n">
-        <v>95416.49136644615</v>
+        <v>95416.49136644599</v>
       </c>
       <c r="G4" t="n">
-        <v>115665.9324579828</v>
+        <v>115665.9324579829</v>
       </c>
       <c r="H4" t="n">
         <v>115665.9324579828</v>
       </c>
       <c r="I4" t="n">
+        <v>115665.9324579829</v>
+      </c>
+      <c r="J4" t="n">
         <v>115665.9324579828</v>
-      </c>
-      <c r="J4" t="n">
-        <v>115665.9324579829</v>
       </c>
       <c r="K4" t="n">
         <v>115665.9324579828</v>
       </c>
       <c r="L4" t="n">
+        <v>115665.9324579828</v>
+      </c>
+      <c r="M4" t="n">
         <v>115665.9324579829</v>
-      </c>
-      <c r="M4" t="n">
-        <v>115665.9324579828</v>
       </c>
       <c r="N4" t="n">
         <v>115665.9324579828</v>
       </c>
       <c r="O4" t="n">
-        <v>95416.49136644613</v>
+        <v>95416.49136644595</v>
       </c>
       <c r="P4" t="n">
-        <v>95416.49136644615</v>
+        <v>95416.49136644595</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>41425.58259407386</v>
+        <v>41425.58259407379</v>
       </c>
       <c r="F5" t="n">
-        <v>41425.58259407386</v>
+        <v>41425.5825940738</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>41425.58259407386</v>
+        <v>41425.58259407379</v>
       </c>
       <c r="P5" t="n">
-        <v>41425.58259407386</v>
+        <v>41425.58259407379</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186539.1638927458</v>
+        <v>186495.0281140649</v>
       </c>
       <c r="C6" t="n">
-        <v>186539.1638927459</v>
+        <v>186495.0281140648</v>
       </c>
       <c r="D6" t="n">
-        <v>186539.1638927459</v>
+        <v>186495.0281140645</v>
       </c>
       <c r="E6" t="n">
-        <v>-202238.6904584354</v>
+        <v>-209826.7425820349</v>
       </c>
       <c r="F6" t="n">
-        <v>264235.6818527043</v>
+        <v>256647.6297291046</v>
       </c>
       <c r="G6" t="n">
-        <v>248100.337968281</v>
+        <v>242031.9242224612</v>
       </c>
       <c r="H6" t="n">
-        <v>283289.1350030319</v>
+        <v>277220.7212572127</v>
       </c>
       <c r="I6" t="n">
-        <v>283289.1350030318</v>
+        <v>277220.7212572125</v>
       </c>
       <c r="J6" t="n">
-        <v>283289.1350030318</v>
+        <v>277220.7212572128</v>
       </c>
       <c r="K6" t="n">
-        <v>283289.1350030318</v>
+        <v>277220.7212572126</v>
       </c>
       <c r="L6" t="n">
-        <v>283289.1350030318</v>
+        <v>277220.7212572125</v>
       </c>
       <c r="M6" t="n">
-        <v>147248.4635384449</v>
+        <v>141180.049792626</v>
       </c>
       <c r="N6" t="n">
-        <v>283289.1350030318</v>
+        <v>277220.7212572126</v>
       </c>
       <c r="O6" t="n">
-        <v>264235.6818527046</v>
+        <v>256647.6297291046</v>
       </c>
       <c r="P6" t="n">
-        <v>264235.6818527044</v>
+        <v>256647.6297291045</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.9008341141673</v>
+        <v>545.9008341141662</v>
       </c>
       <c r="F4" t="n">
-        <v>545.9008341141673</v>
+        <v>545.9008341141664</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26822,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>545.9008341141673</v>
+        <v>545.9008341141662</v>
       </c>
       <c r="P4" t="n">
-        <v>545.9008341141673</v>
+        <v>545.9008341141662</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.9008341141673</v>
+        <v>545.9008341141662</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.3864386403883</v>
+        <v>128.3864386403894</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>545.9008341141672</v>
+        <v>545.9008341141661</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>545.9008341141673</v>
+        <v>545.9008341141662</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>128.3864386403883</v>
+        <v>128.3864386403894</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -35412,25 +35412,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>210.4007571704762</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>36.30093131326399</v>
       </c>
       <c r="N11" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>95.152616075301</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>225.9642741021988</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>88.87707715397359</v>
       </c>
       <c r="N12" t="n">
-        <v>545.9008341141673</v>
+        <v>545.9008341141662</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>226.2115421389303</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
         <v>421.5361394435301</v>
@@ -35658,13 +35658,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>41.54873083723948</v>
+        <v>351.337412804569</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>25.76332749029984</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>185.3910424986129</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>482.7393964307067</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>545.9008341141673</v>
+        <v>79.97735909033671</v>
       </c>
       <c r="O15" t="n">
-        <v>50.71942114786023</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35892,16 +35892,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060969</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
         <v>421.5361394435301</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36214,10 +36214,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
         <v>421.5361394435301</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,10 +36448,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,13 +36609,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36688,13 +36688,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M29" t="n">
         <v>485.8144648060965</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36928,10 +36928,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,16 +37077,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,13 +37320,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37557,7 +37557,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116798</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37788,16 +37788,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>131.4535473885693</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>71.51392741227919</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>29.315405362116</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37867,19 +37867,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>380.9894573640735</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>79.97735909033668</v>
+        <v>545.9008341141662</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>50.71942114786026</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>59.79935253494119</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>131.4535473885693</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>211.7414309284536</v>
       </c>
       <c r="L45" t="n">
-        <v>336.2684138668724</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>79.97735909033668</v>
+        <v>545.9008341141662</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>21.17845723362748</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_13_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_13_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1656229.480754223</v>
+        <v>1689811.089315082</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1854862.008498288</v>
+        <v>1854862.008498282</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7903192.579699649</v>
+        <v>7903192.579699637</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8166721.833054475</v>
+        <v>8166721.833054477</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>294.1826314175108</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>237.9992193550635</v>
       </c>
     </row>
     <row r="12">
@@ -1457,10 +1457,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.5310119231965</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>133.9593922928951</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
         <v>225.8879277888686</v>
@@ -1511,7 +1511,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>65.05528812855205</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="T13" t="n">
-        <v>108.1568209712021</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>322.0641577976766</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>38.03941692999783</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,22 +1691,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>150.5155589101645</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>145.5162732271179</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>248.2086744913578</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>162.3301863578816</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888696</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>239.3793659431438</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>330.5754487741079</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>371.3474507757471</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -2140,7 +2140,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>112.7016475500168</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>101.0111031237839</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>57.70416378283653</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2453,7 +2453,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>235.5000960026868</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4666232302528</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>79.68555956924305</v>
       </c>
       <c r="I26" t="n">
-        <v>79.22210190382118</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>74.09260911231073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>139.5220440822058</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>310.7560402970393</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>61.93455017578141</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>339.7248796633271</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>362.9398872961118</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>122.3623168480191</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11.39108932486009</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>191.4987481956678</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3401,7 +3401,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>64.99586874835482</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>176.5365836185377</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,10 +3568,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>292.6541728747306</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2381480623296</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>113.9615837039735</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>281.617597950237</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>76.91769522897638</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3884,7 +3884,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>95.76120413627892</v>
+        <v>95.7612041362832</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3897,31 +3897,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>57.5034340851951</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>132.2496217415111</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>50.33775783962312</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4058,25 +4058,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>37.88447357157067</v>
+        <v>11.45581232308752</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>15.90252802695411</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>95.29787616176779</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1169.775952769555</v>
+        <v>788.8305947949436</v>
       </c>
       <c r="C11" t="n">
-        <v>1169.775952769555</v>
+        <v>788.8305947949436</v>
       </c>
       <c r="D11" t="n">
-        <v>1169.775952769555</v>
+        <v>788.8305947949436</v>
       </c>
       <c r="E11" t="n">
-        <v>872.621779620554</v>
+        <v>788.8305947949436</v>
       </c>
       <c r="F11" t="n">
-        <v>461.6358748309464</v>
+        <v>788.8305947949436</v>
       </c>
       <c r="G11" t="n">
-        <v>43.67206672913329</v>
+        <v>370.8667866931306</v>
       </c>
       <c r="H11" t="n">
-        <v>43.67206672913329</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="I11" t="n">
-        <v>43.67206672913329</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="J11" t="n">
-        <v>159.439922962083</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="K11" t="n">
-        <v>453.6907339820815</v>
+        <v>337.9228777491319</v>
       </c>
       <c r="L11" t="n">
-        <v>871.0115120311764</v>
+        <v>755.2436557982267</v>
       </c>
       <c r="M11" t="n">
-        <v>906.9494340313078</v>
+        <v>1154.541232867454</v>
       </c>
       <c r="N11" t="n">
-        <v>1381.056132728039</v>
+        <v>1628.647931564185</v>
       </c>
       <c r="O11" t="n">
-        <v>1783.554006393554</v>
+        <v>2031.1458052297</v>
       </c>
       <c r="P11" t="n">
-        <v>2089.402246542117</v>
+        <v>2031.1458052297</v>
       </c>
       <c r="Q11" t="n">
-        <v>2183.603336456665</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="R11" t="n">
-        <v>2183.603336456665</v>
+        <v>2128.574646987163</v>
       </c>
       <c r="S11" t="n">
-        <v>2183.603336456665</v>
+        <v>1952.397159301333</v>
       </c>
       <c r="T11" t="n">
-        <v>2183.603336456665</v>
+        <v>1733.762492273396</v>
       </c>
       <c r="U11" t="n">
-        <v>1929.841551094756</v>
+        <v>1733.762492273396</v>
       </c>
       <c r="V11" t="n">
-        <v>1929.841551094756</v>
+        <v>1402.699604929825</v>
       </c>
       <c r="W11" t="n">
-        <v>1929.841551094756</v>
+        <v>1402.699604929825</v>
       </c>
       <c r="X11" t="n">
-        <v>1556.375792833677</v>
+        <v>1029.233846668745</v>
       </c>
       <c r="Y11" t="n">
-        <v>1556.375792833677</v>
+        <v>788.8305947949436</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>756.9469586734186</v>
+        <v>831.6925021527371</v>
       </c>
       <c r="C12" t="n">
-        <v>582.4939293922916</v>
+        <v>657.2394728716101</v>
       </c>
       <c r="D12" t="n">
-        <v>433.5595197310404</v>
+        <v>508.3050632103589</v>
       </c>
       <c r="E12" t="n">
-        <v>433.5595197310404</v>
+        <v>349.0676082049034</v>
       </c>
       <c r="F12" t="n">
-        <v>287.0249617579253</v>
+        <v>349.0676082049034</v>
       </c>
       <c r="G12" t="n">
-        <v>149.1148487041914</v>
+        <v>211.1574951511695</v>
       </c>
       <c r="H12" t="n">
-        <v>43.67206672913329</v>
+        <v>105.7147131761114</v>
       </c>
       <c r="I12" t="n">
-        <v>43.67206672913329</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="J12" t="n">
-        <v>118.9292291292631</v>
+        <v>49.9025638040946</v>
       </c>
       <c r="K12" t="n">
-        <v>374.1765495703617</v>
+        <v>305.1498842451931</v>
       </c>
       <c r="L12" t="n">
-        <v>778.7924676660335</v>
+        <v>342.6338604904404</v>
       </c>
       <c r="M12" t="n">
-        <v>866.7807740484674</v>
+        <v>866.7807740484712</v>
       </c>
       <c r="N12" t="n">
-        <v>1407.222599821492</v>
+        <v>1407.222599821497</v>
       </c>
       <c r="O12" t="n">
-        <v>1847.358522841836</v>
+        <v>1847.358522841841</v>
       </c>
       <c r="P12" t="n">
-        <v>2183.603336456665</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="Q12" t="n">
-        <v>2183.603336456665</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="R12" t="n">
-        <v>2183.603336456665</v>
+        <v>2133.389965868495</v>
       </c>
       <c r="S12" t="n">
-        <v>2025.430364100581</v>
+        <v>1975.216993512411</v>
       </c>
       <c r="T12" t="n">
-        <v>1890.11784663301</v>
+        <v>1776.33844563519</v>
       </c>
       <c r="U12" t="n">
-        <v>1661.94822260385</v>
+        <v>1548.168821606029</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.796114372107</v>
+        <v>1313.016713374287</v>
       </c>
       <c r="W12" t="n">
-        <v>1172.558757643905</v>
+        <v>1247.304301123224</v>
       </c>
       <c r="X12" t="n">
-        <v>964.7072574383726</v>
+        <v>1039.452800917691</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.9469586734186</v>
+        <v>831.6925021527371</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>212.6718669908009</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="C13" t="n">
-        <v>212.6718669908009</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="D13" t="n">
-        <v>212.6718669908009</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="E13" t="n">
-        <v>212.6718669908009</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="F13" t="n">
-        <v>212.6718669908009</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="G13" t="n">
-        <v>43.67206672913329</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="H13" t="n">
-        <v>43.67206672913329</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="I13" t="n">
-        <v>43.67206672913329</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="J13" t="n">
-        <v>43.67206672913329</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="K13" t="n">
-        <v>99.97425979540144</v>
+        <v>99.97425979540154</v>
       </c>
       <c r="L13" t="n">
         <v>227.5481173565599</v>
       </c>
       <c r="M13" t="n">
-        <v>372.4459860745898</v>
+        <v>372.4459860745899</v>
       </c>
       <c r="N13" t="n">
         <v>519.3331237590189</v>
@@ -5226,25 +5226,25 @@
         <v>717.8580691152032</v>
       </c>
       <c r="S13" t="n">
-        <v>503.5696459333659</v>
+        <v>560.8352279725827</v>
       </c>
       <c r="T13" t="n">
-        <v>394.3203318210406</v>
+        <v>560.8352279725827</v>
       </c>
       <c r="U13" t="n">
-        <v>394.3203318210406</v>
+        <v>271.6616176271507</v>
       </c>
       <c r="V13" t="n">
-        <v>394.3203318210406</v>
+        <v>271.6616176271507</v>
       </c>
       <c r="W13" t="n">
-        <v>394.3203318210406</v>
+        <v>271.6616176271507</v>
       </c>
       <c r="X13" t="n">
-        <v>394.3203318210406</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="Y13" t="n">
-        <v>394.3203318210406</v>
+        <v>43.6720667291334</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>440.3614188005281</v>
+        <v>1148.937819567917</v>
       </c>
       <c r="C14" t="n">
-        <v>440.3614188005281</v>
+        <v>779.9753026275052</v>
       </c>
       <c r="D14" t="n">
-        <v>82.09572019377759</v>
+        <v>779.9753026275052</v>
       </c>
       <c r="E14" t="n">
-        <v>82.09572019377759</v>
+        <v>454.657971518741</v>
       </c>
       <c r="F14" t="n">
-        <v>82.09572019377759</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="G14" t="n">
-        <v>82.09572019377759</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="H14" t="n">
-        <v>43.67206672913331</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="I14" t="n">
-        <v>43.67206672913331</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="J14" t="n">
-        <v>159.439922962083</v>
+        <v>159.4399229620831</v>
       </c>
       <c r="K14" t="n">
-        <v>453.6907339820815</v>
+        <v>453.6907339820816</v>
       </c>
       <c r="L14" t="n">
-        <v>871.0115120311764</v>
+        <v>800.7101277287194</v>
       </c>
       <c r="M14" t="n">
-        <v>1351.967832189212</v>
+        <v>1281.666447886755</v>
       </c>
       <c r="N14" t="n">
-        <v>1699.791870865735</v>
+        <v>1322.799691415622</v>
       </c>
       <c r="O14" t="n">
-        <v>1725.297565081132</v>
+        <v>1725.297565081137</v>
       </c>
       <c r="P14" t="n">
-        <v>2031.145805229695</v>
+        <v>2031.1458052297</v>
       </c>
       <c r="Q14" t="n">
-        <v>2183.603336456666</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="R14" t="n">
-        <v>2183.603336456666</v>
+        <v>2128.574646987163</v>
       </c>
       <c r="S14" t="n">
-        <v>2007.425848770836</v>
+        <v>1952.397159301333</v>
       </c>
       <c r="T14" t="n">
-        <v>1788.791181742899</v>
+        <v>1733.762492273396</v>
       </c>
       <c r="U14" t="n">
-        <v>1535.02939638099</v>
+        <v>1480.000706911487</v>
       </c>
       <c r="V14" t="n">
-        <v>1203.96650903742</v>
+        <v>1148.937819567917</v>
       </c>
       <c r="W14" t="n">
-        <v>1203.96650903742</v>
+        <v>1148.937819567917</v>
       </c>
       <c r="X14" t="n">
-        <v>830.5007507763398</v>
+        <v>1148.937819567917</v>
       </c>
       <c r="Y14" t="n">
-        <v>440.3614188005281</v>
+        <v>1148.937819567917</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>585.9397554358088</v>
+        <v>908.982876764494</v>
       </c>
       <c r="C15" t="n">
-        <v>411.4867261546818</v>
+        <v>734.529847483367</v>
       </c>
       <c r="D15" t="n">
-        <v>411.4867261546818</v>
+        <v>585.5954378221157</v>
       </c>
       <c r="E15" t="n">
-        <v>252.2492711492263</v>
+        <v>433.5595197310405</v>
       </c>
       <c r="F15" t="n">
-        <v>105.7147131761113</v>
+        <v>287.0249617579254</v>
       </c>
       <c r="G15" t="n">
-        <v>105.7147131761113</v>
+        <v>149.1148487041915</v>
       </c>
       <c r="H15" t="n">
-        <v>105.7147131761113</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="I15" t="n">
-        <v>43.67206672913331</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="J15" t="n">
-        <v>43.67206672913331</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="K15" t="n">
-        <v>227.2091988027601</v>
+        <v>298.9193871702319</v>
       </c>
       <c r="L15" t="n">
-        <v>631.8251168984319</v>
+        <v>703.5353052659038</v>
       </c>
       <c r="M15" t="n">
-        <v>1155.972030456463</v>
+        <v>1155.972030456467</v>
       </c>
       <c r="N15" t="n">
-        <v>1235.149615955896</v>
+        <v>1235.1496159559</v>
       </c>
       <c r="O15" t="n">
-        <v>1675.28553897624</v>
+        <v>1675.285538976244</v>
       </c>
       <c r="P15" t="n">
-        <v>2011.530352591069</v>
+        <v>2011.530352591073</v>
       </c>
       <c r="Q15" t="n">
-        <v>2183.603336456666</v>
+        <v>2183.60333645667</v>
       </c>
       <c r="R15" t="n">
-        <v>2183.603336456666</v>
+        <v>2133.389965868495</v>
       </c>
       <c r="S15" t="n">
-        <v>2025.430364100582</v>
+        <v>1975.216993512411</v>
       </c>
       <c r="T15" t="n">
-        <v>1826.551816223361</v>
+        <v>1975.216993512411</v>
       </c>
       <c r="U15" t="n">
-        <v>1598.3821921942</v>
+        <v>1747.04736948325</v>
       </c>
       <c r="V15" t="n">
-        <v>1363.230083962458</v>
+        <v>1747.04736948325</v>
       </c>
       <c r="W15" t="n">
-        <v>1108.992727234256</v>
+        <v>1492.810012755049</v>
       </c>
       <c r="X15" t="n">
-        <v>901.1412270287233</v>
+        <v>1284.958512549516</v>
       </c>
       <c r="Y15" t="n">
-        <v>754.1550924558769</v>
+        <v>1077.198213784562</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.67206672913331</v>
+        <v>200.6949078717538</v>
       </c>
       <c r="C16" t="n">
-        <v>43.67206672913331</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="D16" t="n">
-        <v>43.67206672913331</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="E16" t="n">
-        <v>43.67206672913331</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="F16" t="n">
-        <v>43.67206672913331</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="G16" t="n">
-        <v>43.67206672913331</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="H16" t="n">
-        <v>43.67206672913331</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="I16" t="n">
-        <v>43.67206672913331</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="J16" t="n">
-        <v>43.67206672913331</v>
+        <v>43.6720667291334</v>
       </c>
       <c r="K16" t="n">
-        <v>99.97425979540145</v>
+        <v>99.97425979540154</v>
       </c>
       <c r="L16" t="n">
         <v>227.5481173565599</v>
       </c>
       <c r="M16" t="n">
-        <v>372.4459860745898</v>
+        <v>372.4459860745899</v>
       </c>
       <c r="N16" t="n">
         <v>519.3331237590189</v>
@@ -5472,16 +5472,16 @@
         <v>428.6844587697711</v>
       </c>
       <c r="V16" t="n">
-        <v>173.9999705638843</v>
+        <v>428.6844587697711</v>
       </c>
       <c r="W16" t="n">
-        <v>43.67206672913331</v>
+        <v>428.6844587697711</v>
       </c>
       <c r="X16" t="n">
-        <v>43.67206672913331</v>
+        <v>200.6949078717538</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.67206672913331</v>
+        <v>200.6949078717538</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1519.351822121131</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="C17" t="n">
-        <v>1150.38930518072</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="D17" t="n">
-        <v>792.1236065739693</v>
+        <v>1049.817342705728</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1236065739693</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
@@ -5527,40 +5527,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2533.179205808241</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2533.179205808241</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U17" t="n">
-        <v>2279.417420446333</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V17" t="n">
-        <v>2279.417420446333</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W17" t="n">
-        <v>2279.417420446333</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X17" t="n">
-        <v>1905.951662185253</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y17" t="n">
-        <v>1905.951662185253</v>
+        <v>1794.6828813766</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170829</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359559</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692491</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5606,7 +5606,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
         <v>2188.831293537797</v>
@@ -5615,16 +5615,16 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>579.9823256406182</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U19" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V19" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W19" t="n">
-        <v>338.1849863041093</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1216.807289433106</v>
+        <v>940.7730915590425</v>
       </c>
       <c r="C20" t="n">
-        <v>882.8926947117851</v>
+        <v>940.7730915590425</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117851</v>
+        <v>582.5073929522921</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117851</v>
+        <v>582.5073929522921</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>582.5073929522921</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V20" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W20" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X20" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y20" t="n">
-        <v>1603.407129497228</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="21">
@@ -5813,22 +5813,22 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F21" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5840,16 +5840,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5943,19 +5943,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>614.2889361761142</v>
       </c>
       <c r="V22" t="n">
-        <v>184.2708856551153</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036444</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036444</v>
+        <v>359.6044479702274</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1268.68094731003</v>
+        <v>1135.888471323017</v>
       </c>
       <c r="C23" t="n">
-        <v>1268.68094731003</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="D23" t="n">
-        <v>1268.68094731003</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -5989,13 +5989,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2595.117673721471</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2376.483006693534</v>
+        <v>2638.862056894145</v>
       </c>
       <c r="U23" t="n">
-        <v>2376.483006693534</v>
+        <v>2638.862056894145</v>
       </c>
       <c r="V23" t="n">
-        <v>2045.420119349963</v>
+        <v>2638.862056894145</v>
       </c>
       <c r="W23" t="n">
-        <v>2045.420119349963</v>
+        <v>2286.093401624031</v>
       </c>
       <c r="X23" t="n">
-        <v>2045.420119349963</v>
+        <v>1912.627643362951</v>
       </c>
       <c r="Y23" t="n">
-        <v>1655.280787374151</v>
+        <v>1522.488311387139</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6104,7 +6104,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>513.8405610245969</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V25" t="n">
-        <v>513.8405610245969</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W25" t="n">
-        <v>235.5914466506042</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X25" t="n">
-        <v>235.5914466506042</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y25" t="n">
-        <v>235.5914466506042</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>962.91501986716</v>
+        <v>1658.435818966735</v>
       </c>
       <c r="C26" t="n">
-        <v>962.91501986716</v>
+        <v>1289.473302026323</v>
       </c>
       <c r="D26" t="n">
-        <v>962.91501986716</v>
+        <v>931.2076034195729</v>
       </c>
       <c r="E26" t="n">
-        <v>962.91501986716</v>
+        <v>545.4193508213286</v>
       </c>
       <c r="F26" t="n">
-        <v>551.9291150775525</v>
+        <v>134.4334460317211</v>
       </c>
       <c r="G26" t="n">
-        <v>133.9653069757394</v>
+        <v>134.4334460317211</v>
       </c>
       <c r="H26" t="n">
-        <v>133.9653069757394</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U26" t="n">
-        <v>2423.485734520778</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V26" t="n">
-        <v>2092.422847177208</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W26" t="n">
-        <v>1739.654191907093</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X26" t="n">
-        <v>1739.654191907093</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y26" t="n">
-        <v>1349.514859931282</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>500.1394333084169</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C28" t="n">
-        <v>331.20325038051</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D28" t="n">
-        <v>331.20325038051</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E28" t="n">
-        <v>331.20325038051</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F28" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G28" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6411,25 +6411,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X28" t="n">
-        <v>500.1394333084169</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y28" t="n">
-        <v>500.1394333084169</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1658.435818966735</v>
+        <v>1683.321707331112</v>
       </c>
       <c r="C29" t="n">
-        <v>1658.435818966735</v>
+        <v>1683.321707331112</v>
       </c>
       <c r="D29" t="n">
-        <v>1658.435818966735</v>
+        <v>1325.056008724362</v>
       </c>
       <c r="E29" t="n">
-        <v>1272.647566368491</v>
+        <v>939.2677561261175</v>
       </c>
       <c r="F29" t="n">
-        <v>861.6616615788832</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>443.6978534770701</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>116.503133513073</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6490,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V29" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W29" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X29" t="n">
-        <v>2048.575150942547</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y29" t="n">
-        <v>1658.435818966735</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="30">
@@ -6557,10 +6557,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6651,16 +6651,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610022</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X31" t="n">
         <v>53.94298182036445</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1584.314837422907</v>
+        <v>1196.778435292677</v>
       </c>
       <c r="C32" t="n">
-        <v>1241.158393318536</v>
+        <v>1196.778435292677</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>838.5127366859269</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
         <v>471.9067899221776</v>
@@ -6700,10 +6700,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224076</v>
@@ -6727,25 +6727,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.380435748108</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X32" t="n">
-        <v>1970.914677487028</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y32" t="n">
-        <v>1970.914677487028</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
         <v>665.1105362747051</v>
@@ -6779,37 +6779,37 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.5412816668484</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C34" t="n">
-        <v>177.5412816668484</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D34" t="n">
-        <v>177.5412816668484</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E34" t="n">
-        <v>177.5412816668484</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F34" t="n">
         <v>53.94298182036445</v>
@@ -6882,28 +6882,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>579.9823256406182</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W34" t="n">
-        <v>579.9823256406182</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X34" t="n">
-        <v>579.9823256406182</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y34" t="n">
-        <v>359.1897464970881</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>534.603677789272</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C35" t="n">
-        <v>534.603677789272</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328861</v>
       </c>
       <c r="X35" t="n">
-        <v>936.2491605982757</v>
+        <v>1171.310529343338</v>
       </c>
       <c r="Y35" t="n">
-        <v>546.109828622464</v>
+        <v>781.1711973675267</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170832</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359562</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943677</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7131,16 +7131,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1268.68094731003</v>
+        <v>1168.064026826586</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.68094731003</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7201,25 +7201,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T38" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U38" t="n">
-        <v>2342.651821899526</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V38" t="n">
-        <v>2011.588934555955</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="W38" t="n">
-        <v>1658.820279285841</v>
+        <v>1837.140060718707</v>
       </c>
       <c r="X38" t="n">
-        <v>1658.820279285841</v>
+        <v>1463.674302457627</v>
       </c>
       <c r="Y38" t="n">
-        <v>1268.68094731003</v>
+        <v>1168.064026826586</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7262,16 +7262,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7280,16 +7280,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C40" t="n">
-        <v>211.6913543878343</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7344,40 +7344,40 @@
         <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502482</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594884</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064325</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064325</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064325</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064325</v>
       </c>
       <c r="T40" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750343</v>
       </c>
       <c r="U40" t="n">
-        <v>211.6913543878343</v>
+        <v>500.8207968750343</v>
       </c>
       <c r="V40" t="n">
-        <v>211.6913543878343</v>
+        <v>500.8207968750343</v>
       </c>
       <c r="W40" t="n">
-        <v>211.6913543878343</v>
+        <v>500.8207968750343</v>
       </c>
       <c r="X40" t="n">
-        <v>211.6913543878343</v>
+        <v>500.8207968750343</v>
       </c>
       <c r="Y40" t="n">
-        <v>211.6913543878343</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>808.7949828497954</v>
+        <v>770.9002822762957</v>
       </c>
       <c r="C41" t="n">
-        <v>808.7949828497954</v>
+        <v>401.9377653358839</v>
       </c>
       <c r="D41" t="n">
-        <v>808.7949828497954</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="E41" t="n">
-        <v>808.7949828497954</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="F41" t="n">
-        <v>808.7949828497954</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="G41" t="n">
-        <v>524.3327626980408</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="H41" t="n">
-        <v>197.1380427340437</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="I41" t="n">
-        <v>43.67206672913329</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="J41" t="n">
-        <v>43.67206672913329</v>
+        <v>159.4399229620831</v>
       </c>
       <c r="K41" t="n">
-        <v>337.9228777491318</v>
+        <v>453.6907339820816</v>
       </c>
       <c r="L41" t="n">
-        <v>755.2436557982267</v>
+        <v>800.7101277287189</v>
       </c>
       <c r="M41" t="n">
-        <v>1236.199975956262</v>
+        <v>1281.666447886754</v>
       </c>
       <c r="N41" t="n">
-        <v>1710.306674652994</v>
+        <v>1322.799691415622</v>
       </c>
       <c r="O41" t="n">
-        <v>2112.804548318508</v>
+        <v>1725.297565081136</v>
       </c>
       <c r="P41" t="n">
-        <v>2183.603336456665</v>
+        <v>2031.145805229699</v>
       </c>
       <c r="Q41" t="n">
-        <v>2183.603336456665</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="R41" t="n">
-        <v>2183.603336456665</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="S41" t="n">
-        <v>2007.425848770835</v>
+        <v>2105.908694811239</v>
       </c>
       <c r="T41" t="n">
-        <v>1788.791181742898</v>
+        <v>1887.274027783301</v>
       </c>
       <c r="U41" t="n">
-        <v>1535.029396380989</v>
+        <v>1887.274027783301</v>
       </c>
       <c r="V41" t="n">
-        <v>1535.029396380989</v>
+        <v>1887.274027783301</v>
       </c>
       <c r="W41" t="n">
-        <v>1182.260741110875</v>
+        <v>1534.505372513187</v>
       </c>
       <c r="X41" t="n">
-        <v>808.7949828497954</v>
+        <v>1161.039614252107</v>
       </c>
       <c r="Y41" t="n">
-        <v>808.7949828497954</v>
+        <v>770.9002822762957</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>636.2886024226889</v>
+        <v>636.2886024226891</v>
       </c>
       <c r="C42" t="n">
-        <v>636.2886024226889</v>
+        <v>636.2886024226891</v>
       </c>
       <c r="D42" t="n">
-        <v>487.3541927614377</v>
+        <v>487.3541927614378</v>
       </c>
       <c r="E42" t="n">
-        <v>328.1167377559822</v>
+        <v>328.1167377559823</v>
       </c>
       <c r="F42" t="n">
-        <v>181.5821797828672</v>
+        <v>181.5821797828673</v>
       </c>
       <c r="G42" t="n">
-        <v>43.67206672913329</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="H42" t="n">
-        <v>43.67206672913329</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="I42" t="n">
-        <v>43.67206672913329</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="J42" t="n">
-        <v>72.69431803762814</v>
+        <v>81.22309948270913</v>
       </c>
       <c r="K42" t="n">
-        <v>327.9416384787266</v>
+        <v>81.22309948270913</v>
       </c>
       <c r="L42" t="n">
-        <v>732.5575565743985</v>
+        <v>485.839017578381</v>
       </c>
       <c r="M42" t="n">
-        <v>1256.704470132429</v>
+        <v>1009.985931136412</v>
       </c>
       <c r="N42" t="n">
-        <v>1797.146295905454</v>
+        <v>1550.427756909437</v>
       </c>
       <c r="O42" t="n">
-        <v>1847.358522841836</v>
+        <v>1990.563679929781</v>
       </c>
       <c r="P42" t="n">
-        <v>2183.603336456665</v>
+        <v>2011.530352591072</v>
       </c>
       <c r="Q42" t="n">
-        <v>2183.603336456665</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="R42" t="n">
-        <v>2183.603336456665</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="S42" t="n">
-        <v>2025.430364100581</v>
+        <v>2025.430364100585</v>
       </c>
       <c r="T42" t="n">
-        <v>1826.55181622336</v>
+        <v>1826.551816223364</v>
       </c>
       <c r="U42" t="n">
-        <v>1598.382192194199</v>
+        <v>1598.382192194204</v>
       </c>
       <c r="V42" t="n">
-        <v>1363.230083962457</v>
+        <v>1363.230083962461</v>
       </c>
       <c r="W42" t="n">
-        <v>1108.992727234255</v>
+        <v>1108.99272723426</v>
       </c>
       <c r="X42" t="n">
         <v>1012.264238207711</v>
       </c>
       <c r="Y42" t="n">
-        <v>804.503939442757</v>
+        <v>804.5039394427572</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>717.8580691152032</v>
+        <v>370.3566222245101</v>
       </c>
       <c r="C43" t="n">
-        <v>717.8580691152032</v>
+        <v>201.4204392966032</v>
       </c>
       <c r="D43" t="n">
-        <v>699.2956223903985</v>
+        <v>201.4204392966032</v>
       </c>
       <c r="E43" t="n">
-        <v>699.2956223903985</v>
+        <v>201.4204392966032</v>
       </c>
       <c r="F43" t="n">
-        <v>552.4056748924882</v>
+        <v>201.4204392966032</v>
       </c>
       <c r="G43" t="n">
-        <v>383.4058746308206</v>
+        <v>201.4204392966032</v>
       </c>
       <c r="H43" t="n">
-        <v>225.6575020633507</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="I43" t="n">
-        <v>89.32859116199896</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="J43" t="n">
-        <v>43.67206672913329</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="K43" t="n">
-        <v>99.97425979540144</v>
+        <v>99.97425979540151</v>
       </c>
       <c r="L43" t="n">
         <v>227.5481173565599</v>
@@ -7608,13 +7608,13 @@
         <v>717.8580691152032</v>
       </c>
       <c r="W43" t="n">
-        <v>717.8580691152032</v>
+        <v>428.4408990782426</v>
       </c>
       <c r="X43" t="n">
-        <v>717.8580691152032</v>
+        <v>428.4408990782426</v>
       </c>
       <c r="Y43" t="n">
-        <v>717.8580691152032</v>
+        <v>428.4408990782426</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>370.8667866931305</v>
+        <v>1157.793111735355</v>
       </c>
       <c r="C44" t="n">
-        <v>370.8667866931305</v>
+        <v>788.8305947949436</v>
       </c>
       <c r="D44" t="n">
-        <v>370.8667866931305</v>
+        <v>788.8305947949436</v>
       </c>
       <c r="E44" t="n">
-        <v>370.8667866931305</v>
+        <v>788.8305947949436</v>
       </c>
       <c r="F44" t="n">
-        <v>370.8667866931305</v>
+        <v>788.8305947949436</v>
       </c>
       <c r="G44" t="n">
-        <v>370.8667866931305</v>
+        <v>370.8667866931306</v>
       </c>
       <c r="H44" t="n">
-        <v>43.67206672913329</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="I44" t="n">
-        <v>43.67206672913329</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="J44" t="n">
-        <v>43.67206672913329</v>
+        <v>159.4399229620831</v>
       </c>
       <c r="K44" t="n">
-        <v>102.8734257387251</v>
+        <v>453.6907339820816</v>
       </c>
       <c r="L44" t="n">
-        <v>520.1942037878199</v>
+        <v>871.0115120311764</v>
       </c>
       <c r="M44" t="n">
-        <v>1001.150523945855</v>
+        <v>1154.541232867453</v>
       </c>
       <c r="N44" t="n">
-        <v>1475.257222642587</v>
+        <v>1628.647931564185</v>
       </c>
       <c r="O44" t="n">
-        <v>1877.755096308102</v>
+        <v>2031.145805229699</v>
       </c>
       <c r="P44" t="n">
-        <v>2183.603336456665</v>
+        <v>2031.145805229699</v>
       </c>
       <c r="Q44" t="n">
-        <v>2183.603336456665</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="R44" t="n">
-        <v>2183.603336456665</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="S44" t="n">
-        <v>2007.425848770835</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="T44" t="n">
-        <v>2007.425848770835</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="U44" t="n">
-        <v>1873.840372264258</v>
+        <v>1929.841551094761</v>
       </c>
       <c r="V44" t="n">
-        <v>1873.840372264258</v>
+        <v>1598.77866375119</v>
       </c>
       <c r="W44" t="n">
-        <v>1521.071716994144</v>
+        <v>1547.932443711167</v>
       </c>
       <c r="X44" t="n">
-        <v>1147.605958733064</v>
+        <v>1547.932443711167</v>
       </c>
       <c r="Y44" t="n">
-        <v>757.4666267572522</v>
+        <v>1157.793111735355</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>682.8037208610581</v>
+        <v>525.165591243705</v>
       </c>
       <c r="C45" t="n">
-        <v>682.8037208610581</v>
+        <v>350.712561962578</v>
       </c>
       <c r="D45" t="n">
-        <v>533.8693111998068</v>
+        <v>201.7781523013267</v>
       </c>
       <c r="E45" t="n">
-        <v>495.6021661780183</v>
+        <v>190.2066247022484</v>
       </c>
       <c r="F45" t="n">
-        <v>349.0676082049033</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="G45" t="n">
-        <v>211.1574951511694</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="H45" t="n">
-        <v>105.7147131761112</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="I45" t="n">
-        <v>43.67206672913329</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="J45" t="n">
-        <v>43.67206672913329</v>
+        <v>118.9292291292632</v>
       </c>
       <c r="K45" t="n">
-        <v>253.2960833483023</v>
+        <v>374.1765495703617</v>
       </c>
       <c r="L45" t="n">
-        <v>657.9120014439742</v>
+        <v>778.7924676660336</v>
       </c>
       <c r="M45" t="n">
-        <v>1182.058915002005</v>
+        <v>841.8913681115646</v>
       </c>
       <c r="N45" t="n">
-        <v>1722.500740775029</v>
+        <v>1235.1496159559</v>
       </c>
       <c r="O45" t="n">
-        <v>2162.636663795373</v>
+        <v>1675.285538976244</v>
       </c>
       <c r="P45" t="n">
-        <v>2183.603336456665</v>
+        <v>2011.530352591072</v>
       </c>
       <c r="Q45" t="n">
-        <v>2183.603336456665</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="R45" t="n">
-        <v>2133.38996586849</v>
+        <v>2183.603336456669</v>
       </c>
       <c r="S45" t="n">
-        <v>1975.216993512406</v>
+        <v>2025.430364100585</v>
       </c>
       <c r="T45" t="n">
-        <v>1776.338445635185</v>
+        <v>1826.551816223364</v>
       </c>
       <c r="U45" t="n">
-        <v>1548.168821606024</v>
+        <v>1598.382192194204</v>
       </c>
       <c r="V45" t="n">
-        <v>1313.016713374282</v>
+        <v>1363.230083962461</v>
       </c>
       <c r="W45" t="n">
-        <v>1058.77935664608</v>
+        <v>1108.99272723426</v>
       </c>
       <c r="X45" t="n">
-        <v>1058.77935664608</v>
+        <v>901.1412270287269</v>
       </c>
       <c r="Y45" t="n">
-        <v>851.0190578811262</v>
+        <v>693.3809282637731</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.000977630485</v>
+        <v>207.6483199347125</v>
       </c>
       <c r="C46" t="n">
-        <v>180.000977630485</v>
+        <v>207.6483199347125</v>
       </c>
       <c r="D46" t="n">
-        <v>180.000977630485</v>
+        <v>207.6483199347125</v>
       </c>
       <c r="E46" t="n">
-        <v>180.000977630485</v>
+        <v>59.73522635231936</v>
       </c>
       <c r="F46" t="n">
-        <v>180.000977630485</v>
+        <v>59.73522635231936</v>
       </c>
       <c r="G46" t="n">
-        <v>180.000977630485</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="H46" t="n">
-        <v>180.000977630485</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="I46" t="n">
-        <v>43.67206672913329</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="J46" t="n">
-        <v>43.67206672913329</v>
+        <v>43.67206672913338</v>
       </c>
       <c r="K46" t="n">
-        <v>99.97425979540144</v>
+        <v>99.97425979540151</v>
       </c>
       <c r="L46" t="n">
         <v>227.5481173565599</v>
@@ -7833,25 +7833,25 @@
         <v>717.8580691152032</v>
       </c>
       <c r="S46" t="n">
-        <v>503.5696459333659</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="T46" t="n">
-        <v>276.2614586019677</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="U46" t="n">
-        <v>276.2614586019677</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="V46" t="n">
-        <v>276.2614586019677</v>
+        <v>717.8580691152032</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2614586019677</v>
+        <v>428.4408990782426</v>
       </c>
       <c r="X46" t="n">
-        <v>276.2614586019677</v>
+        <v>428.4408990782426</v>
       </c>
       <c r="Y46" t="n">
-        <v>180.000977630485</v>
+        <v>207.6483199347125</v>
       </c>
     </row>
   </sheetData>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>52.15938665394273</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>367.0299546152481</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8707,10 +8707,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>12.86109185980291</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.4701004453368</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>56.36713097155165</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>25.14081407767971</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>465.9234750238294</v>
+        <v>465.9234750238307</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.266192922115</v>
+        <v>36.26619292211501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,16 +8932,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>346.6497152550393</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>309.7886819673295</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
-        <v>192.0307033080617</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>393.270530045487</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9254,10 +9254,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10205,13 +10205,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516219</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>346.6497152550388</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>84.37501927208207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.31748437003577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>79.38910494481794</v>
+        <v>88.00403569742492</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>6.639660809448827</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,16 +11150,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>465.9234750238294</v>
+        <v>465.9234750238306</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.266192922115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.15938665394273</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>86.72172367176401</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>250.0927260971166</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11314,10 +11314,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>12.86109185980291</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.31748437003577</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>218.3810917379024</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>465.9234750238294</v>
+        <v>317.2531942877795</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.266192922115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>87.747738654751</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>148.2387193009901</v>
       </c>
     </row>
     <row r="12">
@@ -23345,10 +23345,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>62.93037010555381</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>186.6396950323676</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>56.69292621882468</v>
       </c>
       <c r="T13" t="n">
-        <v>116.8782844868822</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>59.86621227458517</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>285.8833558343593</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>7.129521545236457</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>60.16642255018647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>11.79420836743364</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>157.4983735401876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>133.7216955809039</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>12.08552645108998</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>47.14363239344721</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.69744299689967</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>42.43671924504787</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,13 +24144,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24183,13 +24183,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>173.580226691961</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
-        <v>73.40460968518761</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>158.7441565748213</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24384,10 +24384,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>50.78177823929096</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>11.05637510633818</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>244.2372131951141</v>
       </c>
       <c r="I26" t="n">
-        <v>72.70921434104007</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>93.15421198631711</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,19 +24612,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>5.899003940725407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,16 +24645,16 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>96.12000544467213</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>89.99676606907984</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24858,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24891,19 +24891,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>25.54801210768045</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>18.99048277614997</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>23.05873117491215</v>
+        <v>16.63754732114117</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25134,16 +25134,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>371.3427523386205</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,10 +25171,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>178.2323524828012</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>102.250952350273</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25371,13 +25371,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,22 +25393,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>74.68758388975155</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>93.58376578132294</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,13 +25566,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04372617964810388</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>104.6230696481213</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>132.166572070558</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>97.49801757999515</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25727,7 +25727,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>110.0117810671986</v>
+        <v>110.0117810671943</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>122.3285460967422</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>130.2386507606557</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>118.9745457667782</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>298.9032108777899</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25946,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.7606068838303</v>
+        <v>146.1892681323134</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26031,22 +26031,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>151.4072742320968</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,16 +26067,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.286777190327</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>599578.1052562068</v>
+        <v>599578.1052562076</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>599578.1052562069</v>
+        <v>599578.1052562076</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679000.4134896506</v>
+        <v>679000.4134896507</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679000.4134896505</v>
+        <v>679000.4134896506</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679000.4134896505</v>
+        <v>679000.4134896507</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>679000.4134896506</v>
+        <v>679000.4134896505</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679000.4134896506</v>
+        <v>679000.4134896505</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>599578.1052562068</v>
+        <v>599578.1052562074</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>599578.1052562068</v>
+        <v>599578.1052562075</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>634939.1625057049</v>
       </c>
       <c r="C2" t="n">
+        <v>634939.1625057048</v>
+      </c>
+      <c r="D2" t="n">
         <v>634939.1625057049</v>
       </c>
-      <c r="D2" t="n">
-        <v>634939.1625057046</v>
-      </c>
       <c r="E2" t="n">
-        <v>401077.7558132243</v>
+        <v>401077.7558132245</v>
       </c>
       <c r="F2" t="n">
-        <v>401077.7558132242</v>
+        <v>401077.7558132245</v>
       </c>
       <c r="G2" t="n">
+        <v>448186.545524424</v>
+      </c>
+      <c r="H2" t="n">
+        <v>448186.545524424</v>
+      </c>
+      <c r="I2" t="n">
+        <v>448186.5455244241</v>
+      </c>
+      <c r="J2" t="n">
+        <v>448186.5455244241</v>
+      </c>
+      <c r="K2" t="n">
+        <v>448186.545524424</v>
+      </c>
+      <c r="L2" t="n">
+        <v>448186.5455244241</v>
+      </c>
+      <c r="M2" t="n">
         <v>448186.5455244239</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>448186.5455244242</v>
       </c>
-      <c r="I2" t="n">
-        <v>448186.545524424</v>
-      </c>
-      <c r="J2" t="n">
-        <v>448186.5455244243</v>
-      </c>
-      <c r="K2" t="n">
-        <v>448186.5455244241</v>
-      </c>
-      <c r="L2" t="n">
-        <v>448186.545524424</v>
-      </c>
-      <c r="M2" t="n">
-        <v>448186.5455244242</v>
-      </c>
-      <c r="N2" t="n">
-        <v>448186.5455244241</v>
-      </c>
       <c r="O2" t="n">
-        <v>401077.7558132242</v>
+        <v>401077.7558132246</v>
       </c>
       <c r="P2" t="n">
-        <v>401077.7558132241</v>
+        <v>401077.7558132246</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466474.3723111396</v>
+        <v>466474.3723111399</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>35188.79703475113</v>
+        <v>35188.7970347508</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>136040.6714645866</v>
+        <v>136040.671464587</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>95416.49136644595</v>
+        <v>95416.49136644616</v>
       </c>
       <c r="F4" t="n">
-        <v>95416.49136644599</v>
+        <v>95416.49136644616</v>
       </c>
       <c r="G4" t="n">
         <v>115665.9324579829</v>
       </c>
       <c r="H4" t="n">
-        <v>115665.9324579828</v>
+        <v>115665.9324579829</v>
       </c>
       <c r="I4" t="n">
         <v>115665.9324579829</v>
       </c>
       <c r="J4" t="n">
-        <v>115665.9324579828</v>
+        <v>115665.9324579829</v>
       </c>
       <c r="K4" t="n">
-        <v>115665.9324579828</v>
+        <v>115665.9324579829</v>
       </c>
       <c r="L4" t="n">
         <v>115665.9324579828</v>
       </c>
       <c r="M4" t="n">
-        <v>115665.9324579829</v>
+        <v>115665.9324579828</v>
       </c>
       <c r="N4" t="n">
         <v>115665.9324579828</v>
       </c>
       <c r="O4" t="n">
-        <v>95416.49136644595</v>
+        <v>95416.49136644613</v>
       </c>
       <c r="P4" t="n">
-        <v>95416.49136644595</v>
+        <v>95416.49136644613</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>41425.58259407379</v>
+        <v>41425.58259407387</v>
       </c>
       <c r="F5" t="n">
-        <v>41425.5825940738</v>
+        <v>41425.58259407387</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>41425.58259407379</v>
+        <v>41425.58259407386</v>
       </c>
       <c r="P5" t="n">
-        <v>41425.58259407379</v>
+        <v>41425.58259407386</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>186495.0281140649</v>
+        <v>186534.7503148779</v>
       </c>
       <c r="C6" t="n">
-        <v>186495.0281140648</v>
+        <v>186534.7503148777</v>
       </c>
       <c r="D6" t="n">
-        <v>186495.0281140645</v>
+        <v>186534.7503148779</v>
       </c>
       <c r="E6" t="n">
-        <v>-209826.7425820349</v>
+        <v>-202997.4956707954</v>
       </c>
       <c r="F6" t="n">
-        <v>256647.6297291046</v>
+        <v>263476.8766403445</v>
       </c>
       <c r="G6" t="n">
-        <v>242031.9242224612</v>
+        <v>247493.496593699</v>
       </c>
       <c r="H6" t="n">
-        <v>277220.7212572127</v>
+        <v>282682.2936284498</v>
       </c>
       <c r="I6" t="n">
-        <v>277220.7212572125</v>
+        <v>282682.2936284498</v>
       </c>
       <c r="J6" t="n">
-        <v>277220.7212572128</v>
+        <v>282682.2936284498</v>
       </c>
       <c r="K6" t="n">
-        <v>277220.7212572126</v>
+        <v>282682.2936284498</v>
       </c>
       <c r="L6" t="n">
-        <v>277220.7212572125</v>
+        <v>282682.2936284498</v>
       </c>
       <c r="M6" t="n">
-        <v>141180.049792626</v>
+        <v>146641.6221638628</v>
       </c>
       <c r="N6" t="n">
-        <v>277220.7212572126</v>
+        <v>282682.29362845</v>
       </c>
       <c r="O6" t="n">
-        <v>256647.6297291046</v>
+        <v>263476.8766403446</v>
       </c>
       <c r="P6" t="n">
-        <v>256647.6297291045</v>
+        <v>263476.8766403446</v>
       </c>
     </row>
   </sheetData>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.9008341141662</v>
+        <v>545.9008341141674</v>
       </c>
       <c r="F4" t="n">
-        <v>545.9008341141664</v>
+        <v>545.9008341141674</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26822,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>545.9008341141662</v>
+        <v>545.9008341141673</v>
       </c>
       <c r="P4" t="n">
-        <v>545.9008341141662</v>
+        <v>545.9008341141673</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.9008341141662</v>
+        <v>545.9008341141674</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>128.3864386403894</v>
+        <v>128.3864386403882</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>545.9008341141661</v>
+        <v>545.9008341141674</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>545.9008341141662</v>
+        <v>545.9008341141674</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>128.3864386403894</v>
+        <v>128.3864386403882</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -30352,7 +30352,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-5.157591287203574e-13</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>297.2230414343419</v>
@@ -35418,19 +35418,19 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>36.30093131326399</v>
+        <v>403.330885928512</v>
       </c>
       <c r="N11" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.152616075301</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>6.293431388849696</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>37.86260226792652</v>
       </c>
       <c r="M12" t="n">
-        <v>88.87707715397359</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>545.9008341141662</v>
+        <v>545.9008341141674</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>350.524640148119</v>
       </c>
       <c r="M14" t="n">
         <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>351.337412804569</v>
+        <v>41.54873083723948</v>
       </c>
       <c r="O14" t="n">
-        <v>25.76332749029984</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>185.3910424986129</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>457.0067931217808</v>
       </c>
       <c r="N15" t="n">
-        <v>79.97735909033671</v>
+        <v>79.97735909033668</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,10 +35974,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36135,13 +36135,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36208,16 +36208,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
         <v>308.9376163116798</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36688,13 +36688,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,13 +37320,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,10 +37399,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37630,16 +37630,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37712,13 +37712,13 @@
         <v>146.3614835535656</v>
       </c>
       <c r="N40" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458862</v>
       </c>
       <c r="O40" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>350.5246401481185</v>
       </c>
       <c r="M41" t="n">
         <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>41.54873083723948</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>71.51392741227919</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.315405362116</v>
+        <v>37.93033611472298</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>545.9008341141662</v>
+        <v>545.9008341141673</v>
       </c>
       <c r="O42" t="n">
-        <v>50.71942114786026</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>21.17845723362746</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>59.79935253494119</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>286.3936574103806</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>211.7414309284536</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>63.73626307629385</v>
       </c>
       <c r="N45" t="n">
-        <v>545.9008341141662</v>
+        <v>397.2305533781162</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>21.17845723362748</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
